--- a/task.xlsx
+++ b/task.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>练习课题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,14 @@
   </si>
   <si>
     <t>Unity Editor自定义Inspector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity Editor扩展Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190419_190425</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -397,6 +405,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>练习课题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,14 @@
   </si>
   <si>
     <t>190419_190425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190426_190510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏对象的三维变换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -413,6 +421,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
